--- a/morphosource_batch_convert/sample_data/BatchImportWorksheet_completed_sample.xlsx
+++ b/morphosource_batch_convert/sample_data/BatchImportWorksheet_completed_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\N.S\scripts\CT_tools\morphosource_batch_convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\N.S\scripts\CT_tools\morphosource_batch_convert\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/morphosource_batch_convert/sample_data/BatchImportWorksheet_completed_sample.xlsx
+++ b/morphosource_batch_convert/sample_data/BatchImportWorksheet_completed_sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="268">
   <si>
     <t>Specimen record (e.g., "NHM-VP-12345")</t>
   </si>
@@ -808,9 +808,6 @@
     <t>CT scan of MVZ-H-158765</t>
   </si>
   <si>
-    <t>Whole ethanol fixed specimen</t>
-  </si>
-  <si>
     <t>Skull</t>
   </si>
   <si>
@@ -824,6 +821,9 @@
   </si>
   <si>
     <t>Overt TCN: NSF DBI1701714</t>
+  </si>
+  <si>
+    <t>Whole specimen</t>
   </si>
 </sst>
 </file>
@@ -1320,8 +1320,8 @@
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2293,16 +2293,19 @@
         <v>254</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4">
         <v>158765</v>
       </c>
       <c r="AU4" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="AZ4" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BD4" s="12" t="s">
         <v>257</v>
@@ -2314,7 +2317,7 @@
         <v>235</v>
       </c>
       <c r="BG4" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BH4" s="12">
         <v>2.792149E-2</v>
@@ -2350,7 +2353,7 @@
         <v>258</v>
       </c>
       <c r="BX4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
@@ -2364,16 +2367,19 @@
         <v>254</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F5">
         <v>167947</v>
       </c>
       <c r="AU5" s="12" t="s">
-        <v>262</v>
+        <v>251</v>
+      </c>
+      <c r="AW5" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="AZ5" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BD5" s="12" t="s">
         <v>257</v>
@@ -2385,7 +2391,7 @@
         <v>235</v>
       </c>
       <c r="BG5" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BH5" s="12">
         <v>2.7429169999999999E-2</v>
@@ -2435,16 +2441,19 @@
         <v>254</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F6">
         <v>172513</v>
       </c>
       <c r="AU6" s="12" t="s">
-        <v>262</v>
+        <v>253</v>
+      </c>
+      <c r="AW6" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="AZ6" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BD6" s="12" t="s">
         <v>257</v>
@@ -2456,7 +2465,7 @@
         <v>235</v>
       </c>
       <c r="BG6" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BH6" s="12">
         <v>2.7151049999999999E-2</v>
@@ -2506,16 +2515,19 @@
         <v>254</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F7">
         <v>172513</v>
       </c>
       <c r="AU7" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
+      </c>
+      <c r="AW7" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="AZ7" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BD7" s="12" t="s">
         <v>257</v>
@@ -2527,7 +2539,7 @@
         <v>235</v>
       </c>
       <c r="BG7" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BH7" s="12">
         <v>5.4328870000000001E-2</v>
